--- a/mbs-EP-v.1.0.6 - eq mot/Excel Files/simple pendulum/simple_pendulum_adams.xlsx
+++ b/mbs-EP-v.1.0.6 - eq mot/Excel Files/simple pendulum/simple_pendulum_adams.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.3 - changable version\Excel Files\simple pendulum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.6 - eq mot\Excel Files\simple pendulum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA8E3C5-0BC5-43E5-843C-DB35CC4949F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9014AD-DBB9-4362-81F3-4AE3A29A8172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17235" yWindow="5820" windowWidth="16200" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>Run simulation for</t>
   </si>
   <si>
-    <t>Time Step</t>
-  </si>
-  <si>
     <t>roll</t>
   </si>
   <si>
@@ -844,6 +841,9 @@
   </si>
   <si>
     <t>Pendulum Mass</t>
+  </si>
+  <si>
+    <t>Time Step for Points Calc</t>
   </si>
 </sst>
 </file>
@@ -1290,18 +1290,66 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1311,12 +1359,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1326,46 +1368,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1386,7 +1389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,7 +1398,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1407,15 +1416,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1431,6 +1431,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1464,31 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,56 +1947,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
-      <c r="J2" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
+      <c r="B2" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="J2" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="77"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="40">
         <v>10</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="95"/>
+      <c r="J3" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="89"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="89"/>
+      <c r="O3" s="83"/>
       <c r="P3" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="77"/>
+      <c r="B4" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="87"/>
       <c r="D4" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2004,870 +2004,885 @@
         <v>22</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K4" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="98"/>
+      <c r="M4" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="84"/>
+      <c r="P4" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="O4" s="96"/>
-      <c r="P4" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q4" s="50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="84"/>
+      <c r="L5" s="98"/>
       <c r="M5" s="36" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="96"/>
+      <c r="O5" s="84"/>
       <c r="P5" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="77"/>
+      <c r="B6" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="87"/>
       <c r="D6" s="40" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="98"/>
+      <c r="M6" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="84"/>
+      <c r="P6" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="84"/>
-      <c r="M6" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="O6" s="96"/>
-      <c r="P6" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q6" s="50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="40">
         <v>-9806.65</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="84"/>
+      <c r="L7" s="98"/>
       <c r="M7" s="36" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="96"/>
+      <c r="O7" s="84"/>
       <c r="P7" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>85</v>
-      </c>
       <c r="J8" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="84"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="36" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="96"/>
+      <c r="O8" s="84"/>
       <c r="P8" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="77"/>
+      <c r="B9" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="87"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="84"/>
+        <v>99</v>
+      </c>
+      <c r="L9" s="98"/>
       <c r="M9" s="36" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="96"/>
+      <c r="O9" s="84"/>
       <c r="P9" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J10" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="84"/>
+        <v>108</v>
+      </c>
+      <c r="L10" s="98"/>
       <c r="M10" s="36" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="96"/>
+      <c r="O10" s="84"/>
       <c r="P10" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="43"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="84"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="O11" s="96"/>
+        <v>130</v>
+      </c>
+      <c r="O11" s="84"/>
       <c r="P11" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
+      <c r="B12" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
       <c r="J12" s="45"/>
       <c r="K12" s="46"/>
-      <c r="L12" s="84"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="O12" s="96"/>
+        <v>131</v>
+      </c>
+      <c r="O12" s="84"/>
       <c r="P12" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="75"/>
+      <c r="B13" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="85"/>
       <c r="D13" s="55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+        <v>119</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
       <c r="J13" s="45"/>
       <c r="K13" s="46"/>
-      <c r="L13" s="84"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="36" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="96"/>
+      <c r="O13" s="84"/>
       <c r="P13" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="75"/>
+      <c r="B14" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="85"/>
       <c r="D14" s="55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
+        <v>119</v>
+      </c>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
       <c r="J14" s="47"/>
       <c r="K14" s="48"/>
-      <c r="L14" s="84"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N14" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" s="96"/>
+        <v>132</v>
+      </c>
+      <c r="O14" s="84"/>
       <c r="P14" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="75"/>
+      <c r="B15" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="85"/>
       <c r="D15" s="68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="J15" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="82"/>
-      <c r="L15" s="84"/>
+        <v>119</v>
+      </c>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="J15" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="89"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="36" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="96"/>
+      <c r="O15" s="84"/>
       <c r="P15" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q15" s="50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="85"/>
+      <c r="D16" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="J16" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="98"/>
+      <c r="M16" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" s="84"/>
+      <c r="P16" s="36" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="J16" s="36" t="s">
+      <c r="Q16" s="50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="J17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="98"/>
+      <c r="M17" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" s="89"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="85"/>
+      <c r="D18" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="J18" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="O16" s="96"/>
-      <c r="P16" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q16" s="50" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="J17" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="36" t="s">
+      <c r="K18" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="L17" s="84"/>
-      <c r="M17" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="N17" s="82"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="39" t="s">
+      <c r="L18" s="98"/>
+      <c r="M18" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="O18" s="84"/>
+      <c r="P18" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="Q17" s="50" t="s">
+      <c r="Q18" s="50" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="J18" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="84"/>
-      <c r="M18" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="N18" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="O18" s="96"/>
-      <c r="P18" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q18" s="50" t="s">
-        <v>187</v>
-      </c>
-    </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="75"/>
+      <c r="B19" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="85"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
+        <v>119</v>
+      </c>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
       <c r="J19" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="84"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="84"/>
+      <c r="P19" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q19" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="85"/>
+      <c r="D20" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="J20" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="98"/>
+      <c r="M20" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="N19" s="37" t="s">
+      <c r="N20" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="96"/>
-      <c r="P19" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="50" t="s">
+      <c r="O20" s="84"/>
+      <c r="P20" s="36" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="75" t="s">
+      <c r="Q20" s="50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="J20" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="84"/>
-      <c r="M20" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="N20" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="O20" s="96"/>
-      <c r="P20" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q20" s="50" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="75" t="s">
-        <v>237</v>
-      </c>
-      <c r="C21" s="75"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
+        <v>119</v>
+      </c>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
       <c r="J21" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" s="84"/>
+        <v>99</v>
+      </c>
+      <c r="L21" s="98"/>
       <c r="M21" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="O21" s="96"/>
+        <v>152</v>
+      </c>
+      <c r="O21" s="84"/>
       <c r="P21" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="97"/>
+      <c r="B22" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="90"/>
       <c r="D22" s="55">
         <v>3</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="98"/>
+      <c r="G22" s="91"/>
       <c r="H22" s="56"/>
       <c r="J22" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="K22" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="85"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N22" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="O22" s="96"/>
+        <v>151</v>
+      </c>
+      <c r="O22" s="84"/>
       <c r="P22" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q22" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="56"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="Q22" s="50" t="s">
+      <c r="Q23" s="51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="56"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q23" s="51" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="56"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q24" s="51" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="56"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="26" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="56"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q25" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="Q24" s="51" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="56"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="26" t="s">
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="56"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="Q25" s="51" t="s">
+      <c r="Q26" s="51" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="56"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="26" t="s">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="56"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="Q26" s="51" t="s">
+      <c r="Q27" s="51" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="56"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="26" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="56"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q28" s="51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="56"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="Q27" s="51" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="56"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="26" t="s">
+      <c r="Q29" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="77"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="Q28" s="51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="56"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q29" s="51" t="s">
+      <c r="Q30" s="51" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="89"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="26" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="77"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="Q30" s="51" t="s">
+      <c r="Q31" s="51" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="26" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="77"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="Q31" s="51" t="s">
+      <c r="Q32" s="51" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="89"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="26" t="s">
+    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="Q32" s="51" t="s">
+      <c r="Q33" s="51" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="89"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="26" t="s">
+    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J34" s="77"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="Q33" s="51" t="s">
+      <c r="Q34" s="51" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="89"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="26" t="s">
+    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J35" s="77"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="Q34" s="51" t="s">
+      <c r="Q35" s="51" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="89"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q35" s="51" t="s">
+    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="77"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="26" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="89"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="26" t="s">
+      <c r="Q36" s="51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="77"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="Q36" s="51" t="s">
+      <c r="Q37" s="51" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="89"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="26" t="s">
+    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="80"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="Q37" s="51" t="s">
+      <c r="Q38" s="51" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="92"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q38" s="51" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
       <c r="P39" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q39" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:L22"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J23:N38"/>
     <mergeCell ref="O3:O38"/>
     <mergeCell ref="B18:C18"/>
@@ -2883,21 +2898,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F13:H21"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:L22"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2909,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,34 +2929,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="75" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75" t="s">
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
       <c r="S1" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T1" s="52"/>
       <c r="U1" s="52"/>
@@ -2978,76 +2978,76 @@
       <c r="AK1" s="52"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="106" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="105"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="103"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -3077,69 +3077,69 @@
         <v>4</v>
       </c>
       <c r="L3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="O3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="91"/>
       <c r="S3" s="53"/>
       <c r="T3" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="V3" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="54" t="s">
+      <c r="W3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="Y3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>66</v>
-      </c>
       <c r="Z3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" s="24" t="s">
+      <c r="AB3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AC3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AD3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AE3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AF3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="24" t="s">
+      <c r="AG3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="24" t="s">
+      <c r="AH3" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="AH3" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="AI3" s="52" t="s">
         <v>2</v>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="16">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="70">
         <v>-500</v>
@@ -3382,7 +3382,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="70">
         <v>-1000</v>
@@ -6528,6 +6528,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O2:Q2"/>
@@ -6539,12 +6545,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6555,7 +6555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -6575,16 +6575,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>6</v>
@@ -6615,11 +6615,11 @@
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="F2" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6675,19 +6675,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
+      <c r="A5" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>6</v>
@@ -6712,16 +6712,16 @@
       <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -6757,22 +6757,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>6</v>
@@ -6797,21 +6797,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="109" t="s">
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -6842,19 +6842,19 @@
       <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>6</v>
@@ -6879,16 +6879,16 @@
       <c r="E12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
+      <c r="F12" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -6990,19 +6990,19 @@
       <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="17" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>6</v>
@@ -7027,16 +7027,16 @@
       <c r="E17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
     </row>
     <row r="18" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
@@ -7073,19 +7073,19 @@
       <c r="X19" s="10"/>
     </row>
     <row r="20" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
@@ -7096,7 +7096,7 @@
     </row>
     <row r="21" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>6</v>
@@ -7110,40 +7110,40 @@
       <c r="E21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="109" t="s">
+      <c r="F21" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
     </row>
     <row r="22" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="107" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
+      <c r="A24" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
     </row>
     <row r="25" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>6</v>
@@ -7157,48 +7157,48 @@
       <c r="E25" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="108" t="s">
+      <c r="F25" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
     </row>
     <row r="26" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
+      <c r="A28" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
     </row>
     <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>6</v>
@@ -7212,26 +7212,26 @@
       <c r="E29" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="110" t="s">
+      <c r="F29" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="111"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="111"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="109" t="s">
+      <c r="J29" s="114"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
     </row>
     <row r="30" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
@@ -7254,14 +7254,14 @@
     </row>
     <row r="31" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="33" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>6</v>
@@ -7335,12 +7335,12 @@
       <c r="X35" s="10"/>
     </row>
     <row r="36" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -7358,7 +7358,7 @@
     </row>
     <row r="37" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>6</v>
@@ -7385,7 +7385,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -7412,15 +7412,15 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="113" t="s">
+      <c r="A40" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="115"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -7429,7 +7429,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>6</v>
@@ -7440,11 +7440,11 @@
       <c r="D41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="109" t="s">
+      <c r="E41" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="10"/>
@@ -7455,7 +7455,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="38">
@@ -7478,7 +7478,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="38">
@@ -7512,6 +7512,21 @@
     <row r="60" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="A20:K20"/>
     <mergeCell ref="F21:H21"/>
@@ -7528,21 +7543,6 @@
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="L29:N29"/>
     <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7563,7 +7563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -7580,7 +7580,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -7591,13 +7591,13 @@
       <c r="H1" s="117"/>
       <c r="I1" s="117"/>
       <c r="J1" s="117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>6</v>
@@ -7609,21 +7609,21 @@
         <v>16</v>
       </c>
       <c r="E2" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="K2" s="60" t="s">
         <v>240</v>
-      </c>
-      <c r="K2" s="60" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7643,7 +7643,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7666,7 +7666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -7693,7 +7693,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -7715,39 +7715,39 @@
       <c r="S1" s="117"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
       <c r="N2" s="118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O2" s="119"/>
       <c r="P2" s="119"/>
       <c r="Q2" s="119"/>
       <c r="R2" s="119"/>
       <c r="S2" s="120"/>
-      <c r="AB2" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="123"/>
+      <c r="AB2" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="131"/>
     </row>
     <row r="3" spans="1:33" s="28" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="61" t="s">
         <v>6</v>
@@ -7761,44 +7761,44 @@
       <c r="E3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="132" t="s">
+      <c r="F3" s="124" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="140"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="128"/>
       <c r="L3" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N3" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="P3" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="Q3" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="R3" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="S3" s="130"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="126"/>
+      <c r="R3" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="S3" s="138"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="134"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="38"/>
@@ -7818,12 +7818,12 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="AB4" s="124"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="125"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="126"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="134"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
@@ -7845,24 +7845,24 @@
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
-      <c r="AB5" s="124"/>
-      <c r="AC5" s="125"/>
-      <c r="AD5" s="125"/>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="126"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="133"/>
+      <c r="AD5" s="133"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="133"/>
+      <c r="AG5" s="134"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="124"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="126"/>
+      <c r="AB6" s="132"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133"/>
+      <c r="AF6" s="133"/>
+      <c r="AG6" s="134"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="116" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="117"/>
       <c r="C7" s="117"/>
@@ -7881,44 +7881,44 @@
       <c r="P7" s="117"/>
       <c r="Q7" s="117"/>
       <c r="R7" s="117"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="125"/>
-      <c r="AG7" s="126"/>
+      <c r="AB7" s="132"/>
+      <c r="AC7" s="133"/>
+      <c r="AD7" s="133"/>
+      <c r="AE7" s="133"/>
+      <c r="AF7" s="133"/>
+      <c r="AG7" s="134"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="131" t="s">
-        <v>244</v>
-      </c>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="125"/>
-      <c r="AF8" s="125"/>
-      <c r="AG8" s="126"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="139" t="s">
+        <v>243</v>
+      </c>
+      <c r="O8" s="139"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="133"/>
+      <c r="AF8" s="133"/>
+      <c r="AG8" s="134"/>
     </row>
     <row r="9" spans="1:33" s="28" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="61" t="s">
         <v>6</v>
@@ -7932,41 +7932,41 @@
       <c r="E9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="132" t="s">
+      <c r="F9" s="124" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="140"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="133"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="136"/>
-      <c r="K9" s="137"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
       <c r="L9" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="N9" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="O9" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="P9" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="Q9" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="Q9" s="132" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" s="134"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="125"/>
-      <c r="AD9" s="125"/>
-      <c r="AE9" s="125"/>
-      <c r="AF9" s="125"/>
-      <c r="AG9" s="126"/>
+      <c r="R9" s="125"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="133"/>
+      <c r="AD9" s="133"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="133"/>
+      <c r="AG9" s="134"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
@@ -7982,12 +7982,12 @@
       <c r="K10" s="38"/>
       <c r="L10" s="64"/>
       <c r="M10" s="23"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="125"/>
-      <c r="AD10" s="125"/>
-      <c r="AE10" s="125"/>
-      <c r="AF10" s="125"/>
-      <c r="AG10" s="126"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="133"/>
+      <c r="AG10" s="134"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
@@ -8002,25 +8002,25 @@
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
       <c r="L11" s="64"/>
-      <c r="AB11" s="124"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="125"/>
-      <c r="AE11" s="125"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="126"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="133"/>
+      <c r="AG11" s="134"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="38"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="125"/>
-      <c r="AD12" s="125"/>
-      <c r="AE12" s="125"/>
-      <c r="AF12" s="125"/>
-      <c r="AG12" s="126"/>
+      <c r="AB12" s="132"/>
+      <c r="AC12" s="133"/>
+      <c r="AD12" s="133"/>
+      <c r="AE12" s="133"/>
+      <c r="AF12" s="133"/>
+      <c r="AG12" s="134"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="117"/>
       <c r="C13" s="117"/>
@@ -8046,35 +8046,35 @@
       <c r="W13" s="117"/>
       <c r="X13" s="117"/>
       <c r="Y13" s="117"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="129"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="136"/>
+      <c r="AD13" s="136"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="136"/>
+      <c r="AG13" s="137"/>
     </row>
     <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="115"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="112"/>
       <c r="T14" s="118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U14" s="119"/>
       <c r="V14" s="119"/>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="15" spans="1:33" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="61" t="s">
         <v>6</v>
@@ -8100,48 +8100,48 @@
       <c r="E15" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="F15" s="90" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="135" t="s">
+      <c r="J15" s="127"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="121" t="s">
         <v>247</v>
       </c>
-      <c r="J15" s="136"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="138" t="s">
+      <c r="M15" s="122"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="121" t="s">
         <v>248</v>
       </c>
-      <c r="M15" s="139"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="138" t="s">
-        <v>249</v>
-      </c>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="140"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="123"/>
       <c r="R15" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S15" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T15" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="U15" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="U15" s="61" t="s">
+      <c r="V15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="V15" s="61" t="s">
+      <c r="W15" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="W15" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="X15" s="132" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y15" s="134"/>
+      <c r="X15" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" s="125"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="117"/>
       <c r="C18" s="117"/>
@@ -8221,7 +8221,7 @@
       <c r="J19" s="67"/>
       <c r="K19" s="67"/>
       <c r="L19" s="118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M19" s="119"/>
       <c r="N19" s="119"/>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="20" spans="1:20" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="58" t="s">
         <v>6</v>
@@ -8245,32 +8245,32 @@
       <c r="E20" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="97" t="s">
+      <c r="F20" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="138" t="s">
-        <v>154</v>
-      </c>
-      <c r="J20" s="139"/>
-      <c r="K20" s="140"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="121" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="122"/>
+      <c r="K20" s="123"/>
       <c r="L20" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="61" t="s">
+      <c r="N20" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="N20" s="61" t="s">
+      <c r="O20" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="O20" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="132" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="134"/>
+      <c r="P20" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20" s="125"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
@@ -8319,16 +8319,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:S2"/>
     <mergeCell ref="AB2:AG13"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="A8:M8"/>
@@ -8340,11 +8335,16 @@
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="X15:Y15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8367,40 +8367,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="F1" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="80"/>
-      <c r="I1" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="80"/>
+      <c r="A1" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="F1" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="96"/>
+      <c r="I1" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I2" s="141" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J2" s="141"/>
       <c r="K2" s="141"/>
@@ -8411,10 +8411,10 @@
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
       <c r="F3" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I3" s="141"/>
       <c r="J3" s="141"/>
@@ -8426,10 +8426,10 @@
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
       <c r="F4" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I4" s="141"/>
       <c r="J4" s="141"/>
@@ -8441,10 +8441,10 @@
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
       <c r="F5" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="50" t="s">
         <v>162</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>163</v>
       </c>
       <c r="I5" s="141"/>
       <c r="J5" s="141"/>
@@ -8456,10 +8456,10 @@
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
       <c r="F6" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I6" s="141"/>
       <c r="J6" s="141"/>
@@ -8472,10 +8472,10 @@
       <c r="C7" s="49"/>
       <c r="E7" s="30"/>
       <c r="F7" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H7" s="17"/>
     </row>
@@ -8484,10 +8484,10 @@
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
       <c r="F8" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -8496,10 +8496,10 @@
       <c r="C9" s="49"/>
       <c r="E9" s="30"/>
       <c r="F9" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" s="30"/>
     </row>
@@ -8508,10 +8508,10 @@
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
       <c r="F10" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -8519,10 +8519,10 @@
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
       <c r="F11" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -8530,10 +8530,10 @@
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="F12" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -8541,10 +8541,10 @@
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
       <c r="F13" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -8552,10 +8552,10 @@
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
       <c r="F14" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -8563,10 +8563,10 @@
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
       <c r="F15" s="49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -8574,10 +8574,10 @@
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
       <c r="F16" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -8585,10 +8585,10 @@
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
       <c r="F17" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -8596,10 +8596,10 @@
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
       <c r="F18" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O18" s="17">
         <v>4</v>
@@ -8647,10 +8647,10 @@
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="F19" s="49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -8658,10 +8658,10 @@
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
       <c r="F20" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -8669,10 +8669,10 @@
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
       <c r="F21" s="49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -8680,10 +8680,10 @@
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
       <c r="F22" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -8691,10 +8691,10 @@
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
       <c r="F23" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -8702,10 +8702,10 @@
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
       <c r="F24" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -8713,10 +8713,10 @@
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
       <c r="F25" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -8724,10 +8724,10 @@
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
       <c r="F26" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -8735,10 +8735,10 @@
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
       <c r="F27" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -8746,10 +8746,10 @@
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
       <c r="F28" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -8757,10 +8757,10 @@
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
       <c r="F29" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -8768,10 +8768,10 @@
       <c r="B30" s="49"/>
       <c r="C30" s="49"/>
       <c r="F30" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -8779,10 +8779,10 @@
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
       <c r="F31" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G31" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -8790,10 +8790,10 @@
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
       <c r="F32" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G32" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -8801,10 +8801,10 @@
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
       <c r="F33" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G33" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -8812,10 +8812,10 @@
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
       <c r="F34" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -8823,10 +8823,10 @@
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
       <c r="F35" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G35" s="51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -8834,10 +8834,10 @@
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
       <c r="F36" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G36" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -8845,10 +8845,10 @@
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
       <c r="F37" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G37" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -8856,10 +8856,10 @@
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
       <c r="F38" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
